--- a/orange/israel tweets.xlsx
+++ b/orange/israel tweets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB5BDAB-6B67-473C-99EE-F6C9E1742971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C0866B-FFDF-4F1D-B7F6-367A519BCE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1230" windowWidth="28800" windowHeight="14970" xr2:uid="{DC2B51F1-8E8E-41AA-8F48-41F35C861EB2}"/>
   </bookViews>
